--- a/resources/samples/SampleMappings_11.xlsx
+++ b/resources/samples/SampleMappings_11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/script/mapping/sampleMapping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DDD3B-A47C-4841-98EE-713D872744CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECAE2A3-A266-7E47-B048-8140F8D74A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15580" yWindow="-28280" windowWidth="25560" windowHeight="28260" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
+    <workbookView xWindow="-10040" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>Use test client: cumulocity-dynamic-mqtt-mapper/mqtt-mapping-service/src/test/java/mqtt/mapping/ProtobufPahoClient.java to create a new measurement for bus "berlin_01"</t>
-  </si>
-  <si>
     <t>{
     "line": "Bus-Berlin-Rom",
     "operator": "EuroBus",
@@ -229,28 +226,6 @@
 Depending on this the relevant fragments n the Cumulocity measurement are created.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 
-Use test client: cumulocity-dynamic-mqtt-mapper/mqtt-mapping-extension/src/test/java/mqtt/mapping/ProtobufPahoClient.java
-to create a new event for bus "berlin_01"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send message in protobuf format:
-syntax = "proto3";
-package processor.protobuf;
-option java_package = "mqtt.mapping.processor.extension.external";
-option java_outer_classname = "CustomEventOuter";
-message CustomEvent {
-  int64 timestamp = 1;
-  string txt = 2;
-  string unit = 3;
-  string externalIdType = 4;
-  string externalId = 5;
-  string eventType = 6;
-}
-Use test client:  cumulocity-dynamic-mqtt-mapper/mqtt-mapping-extension/src/test/java/mqtt/mapping/ProtobufPahoClient.java
- </t>
-  </si>
-  <si>
     <t>{
     "c8y_GenericMeasurement": {
         "Module": {
@@ -264,20 +239,6 @@
     },
     "type": "c8y_GenericMeasurement_type"
 }</t>
-  </si>
-  <si>
-    <t>Send message in protobuf format:
-option java_package = "mqtt.mapping.processor.protobuf";
-option java_outer_classname = "MeasurementProto";
-message CustomMeasurement {
-  int64 timestamp = 1;
-  float value = 2;
-  string unit = 3;
-  string externalIdType = 4;
-  string externalId = 5;
-  string measurementType = 6;
-}
-Use test client:  cumulocity-dynamic-mqtt-mapper/mqtt-mapping-service/src/test/java/mqtt/mapping/ProtobufPahoClient.java</t>
   </si>
   <si>
     <t>{
@@ -784,16 +745,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">subscriptionTopic:  measurementExt
-mappingTopic:       measurementExt
-mappingTopicSample: measurementExt
-sub:
-Events for mqtt-mapping-extension: CustomMeasurement
-Extension for PROCESSOR_EXTENSION: mqtt-mapping-externsion
-Defined in cumulocity-dynamic-mqtt-mapper/mqtt-mapping-extension/src/main/java/mqtt/mapping/processor/extension/external/ProcessorExtensionCustomMeasurement.java
-</t>
-  </si>
-  <si>
     <t>subscriptionTopic:  flexM/#
 mappingTopic:       flexM/+/gazoline
 mappingTopicSample: flexM/berlin_01/gazoline
@@ -825,27 +776,6 @@
 2.	[ $fromMillis($number(deviceTimestamp))-&gt; time ]
 3.	[ temperature-&gt;c8y_TemperatureMeasurement.T.value ]
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">subscriptionTopic:   protobuf/event
-mappingTopic:        protobuf/event
-mappingTopicSample:  protobuf/event
-sub:
-Defined in cumulocity-dynamic-mqtt-mapper/mqtt-mapping-extension/src/main/java/mqtt/mapping/processor/extension/external/ProcessorExtensionCustomEvent.java
-In selection: Extensions for PROCESSOR_EXTENSION
-choose:
-  dynamic-mapping-extension
-In selection: Events for dynamic-mapping-extension
-choose:
-  CustomEvent
-</t>
-  </si>
-  <si>
-    <t>subscriptionTopic:   protobuf/measurement
-mappingTopic:        protobuf/measurement
-mappingTopicSample:  protobuf/measurement
-sub:
-Defined in cumulocity-dynamic-mqtt-mapper/mqtt-mapping-service/src/main/java/mqtt/mapping/processor/processor/fixed/StaticProtobufProcessor.java</t>
   </si>
   <si>
     <t xml:space="preserve">subscriptionTopic:   binaryEvent/+
@@ -1043,6 +973,76 @@
 1.  [ * ID —&gt; source.id ]
 2.  [ $replace(ts,' ','T') —&gt; time ]
 3.  [ $map($spread(meas), function($v, $k) { { $keys($v): { "value": $lookup($v,$keys($v))[0], "unit": "l/h" } } })~&gt;$merge() —&gt; onguardMeasurement ]
+</t>
+  </si>
+  <si>
+    <t>subscriptionTopic:   protobuf/measurement
+mappingTopic:        protobuf/measurement
+mappingTopicSample:  protobuf/measurement
+sub:
+Defined in cumulocity-dynamic-mapper/dynamic-mapping-service/src/main/java/dynamic/mapping/processor/processor/fixed/StaticProtobufProcessor.java</t>
+  </si>
+  <si>
+    <t>Use test client: cumulocity-dynamic-mapper/dynamic-mapping-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java to create a new measurement for bus "berlin_01"</t>
+  </si>
+  <si>
+    <t>Send message in protobuf format:
+option java_package = "mqtt.mapping.processor.protobuf";
+option java_outer_classname = "MeasurementProto";
+message CustomMeasurement {
+  int64 timestamp = 1;
+  float value = 2;
+  string unit = 3;
+  string externalIdType = 4;
+  string externalId = 5;
+  string measurementType = 6;
+}
+Use test client:  cumulocity-dynamic-mapper/dynamic-mapping-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscriptionTopic:   protobuf/event
+mappingTopic:        protobuf/event
+mappingTopicSample:  protobuf/event
+sub:
+Defined in cumulocity-dynamic-mapper/dynamic-mapping-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomEvent.java
+In selection: Extensions for PROCESSOR_EXTENSION
+choose:
+  dynamic-mapping-extension
+In selection: Events for dynamic-mapping-extension
+choose:
+  CustomEvent
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Use test client: cumulocity-dynamic-mapper/mqtt-mapping-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
+to create a new event for bus "berlin_01"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send message in protobuf format:
+syntax = "proto3";
+package processor.protobuf;
+option java_package = "mqtt.mapping.processor.extension.external";
+option java_outer_classname = "CustomEventOuter";
+message CustomEvent {
+  int64 timestamp = 1;
+  string txt = 2;
+  string unit = 3;
+  string externalIdType = 4;
+  string externalId = 5;
+  string eventType = 6;
+}
+Use test client:  cumulocity-dynamic-mapper/dynamic-mapping-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subscriptionTopic:  measurementExt
+mappingTopic:       measurementExt
+mappingTopicSample: measurementExt
+sub:
+Events for mqtt-mapping-extension: CustomMeasurement
+Extension for PROCESSOR_EXTENSION: mqtt-mapping-externsion
+Defined in cumulocity-dynamic-mapper/dynamic-mapping-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomMeasurement.java
 </t>
   </si>
 </sst>
@@ -1487,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>1</v>
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>3</v>
@@ -1527,114 +1527,114 @@
     </row>
     <row r="2" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="384" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -1642,94 +1642,94 @@
     </row>
     <row r="7" spans="1:7" ht="196" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="196" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.2">
@@ -1737,22 +1737,22 @@
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -1760,22 +1760,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="140" x14ac:dyDescent="0.2">
@@ -1783,22 +1783,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="98" x14ac:dyDescent="0.2">
@@ -1806,22 +1806,22 @@
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="266" x14ac:dyDescent="0.2">
@@ -1829,22 +1829,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="332" x14ac:dyDescent="0.2">
@@ -1852,22 +1852,22 @@
         <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="182" x14ac:dyDescent="0.2">
@@ -1875,22 +1875,22 @@
         <v>20</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -1898,19 +1898,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1921,22 +1921,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.2">
@@ -1944,22 +1944,22 @@
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="252" x14ac:dyDescent="0.2">
@@ -1967,22 +1967,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
@@ -1990,68 +1990,68 @@
         <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="224" x14ac:dyDescent="0.2">
@@ -2059,22 +2059,22 @@
         <v>51</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="196" x14ac:dyDescent="0.2">
@@ -2082,45 +2082,45 @@
         <v>52</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="210" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
